--- a/VersionRecords/Version 5.0.3/定时器/新增定时器 (EQ组).xlsx
+++ b/VersionRecords/Version 5.0.3/定时器/新增定时器 (EQ组).xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14070" tabRatio="185"/>
+    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="185"/>
   </bookViews>
   <sheets>
     <sheet name="定时器" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">定时器!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>定时器大类</t>
   </si>
@@ -94,6 +94,15 @@
     </r>
   </si>
   <si>
+    <t>BrandOnlineNotifyTask</t>
+  </si>
+  <si>
+    <t>品牌上线提醒</t>
+  </si>
+  <si>
+    <t>薛冠宙</t>
+  </si>
+  <si>
     <t>史欣欣</t>
   </si>
   <si>
@@ -103,44 +112,25 @@
     <t>否</t>
   </si>
   <si>
-    <t>定时周期任务</t>
-  </si>
-  <si>
-    <t>尝试重复执行一次，若仍有错，需开发修复</t>
-  </si>
-  <si>
-    <t>5.0.3</t>
-  </si>
-  <si>
-    <t>BrandOnlineNotifyTask</t>
-  </si>
-  <si>
-    <t>品牌上线提醒</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>薛冠宙</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>BrandOnlineNotifyTask</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>每天9点，查询当天需要上线品牌，给指定人员发送邮件进行提醒</t>
   </si>
   <si>
     <t>com.mogoroom.tasktracker.task.BrandOnlineNotifyTask</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>{"taskImpl":"com.mogoroom.tasktracker.task.</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>BrandOnlineNotifyTask</t>
     </r>
@@ -148,28 +138,56 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>"}</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时周期任务</t>
   </si>
   <si>
     <t>每日09:00:00执行</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天9点，查询当天需要上线品牌，给指定人员发送邮件进行提醒</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试重复执行一次，若仍有错，需开发修复</t>
+  </si>
+  <si>
+    <t>5.0.3</t>
+  </si>
+  <si>
+    <t>CalculateLandlordActiveScoreTask</t>
+  </si>
+  <si>
+    <t>计算房东活跃分定时器</t>
+  </si>
+  <si>
+    <t>金刚</t>
+  </si>
+  <si>
+    <t>根据房东30天内的房源录入量，在线签约量等纬度的数据，计算房东活跃度</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.CalculateLandlordActiveScoreTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.CalculateLandlordActiveScoreTask"}</t>
+  </si>
+  <si>
+    <t>每日04:00:00执行</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,13 +219,150 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -219,14 +374,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,7 +384,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,8 +394,200 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -293,107 +634,393 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="49" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
@@ -655,14 +1282,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="13.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="36.125" style="4" customWidth="1"/>
@@ -685,7 +1313,7 @@
     <col min="19" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:18">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -716,22 +1344,22 @@
       <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="15" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="24" t="s">
@@ -741,99 +1369,134 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
+    <row r="2" s="2" customFormat="1" ht="33.95" customHeight="1" spans="1:18">
       <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="L2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="N2" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="20" t="s">
+      <c r="O2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="33.95" customHeight="1" spans="1:18">
+      <c r="A3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="C3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="26" t="s">
+      <c r="P3" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="22" t="s">
+      <c r="R3" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="20" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" ht="14.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-    </row>
-    <row r="4" spans="1:18" s="2" customFormat="1">
-      <c r="B4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
+    <row r="4" s="2" customFormat="1" spans="2:16">
+      <c r="B4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
       <c r="P4" s="23"/>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1">
-      <c r="B5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
+    <row r="5" s="2" customFormat="1" spans="2:16">
+      <c r="B5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
       <c r="P5" s="23"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:XFD3"/>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>